--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,25 +52,37 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>hate</t>
   </si>
   <si>
     <t>shit</t>
@@ -82,30 +94,30 @@
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -124,58 +136,70 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
+    <t>right</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>’</t>
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>positive</t>
@@ -536,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -676,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -705,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9519230769230769</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -755,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9393939393939394</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.7931034482758621</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.7719298245614035</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.7066666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.8125</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>0.65</v>
+      </c>
+      <c r="L10">
         <v>39</v>
       </c>
-      <c r="K10">
-        <v>0.5925925925925926</v>
-      </c>
-      <c r="L10">
-        <v>16</v>
-      </c>
       <c r="M10">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6875</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.5789473684210527</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,38 +1079,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="L12">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1097,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.55</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6170212765957447</v>
+        <v>0.7</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.4242424242424243</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5882352941176471</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.3958333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.6875</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1273,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1305,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1323,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.2377049180327869</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L17">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1347,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>837</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1355,37 +1379,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5428571428571428</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>19</v>
       </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.2372881355932203</v>
+        <v>0.2304189435336976</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1397,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>845</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1405,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1423,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.1690140845070423</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1447,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1455,13 +1479,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5217391304347826</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1473,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.03012048192771084</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1497,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>644</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1505,38 +1529,38 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21">
+        <v>0.1263157894736842</v>
+      </c>
+      <c r="L21">
         <v>12</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>12</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>0.02639296187683285</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1547,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>332</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1555,13 +1579,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4642857142857143</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1573,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.02407407407407407</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1597,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>527</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1605,13 +1629,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3928571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1623,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.01536491677336748</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1647,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>769</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1655,37 +1679,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3846153846153846</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>15</v>
       </c>
-      <c r="D24">
+      <c r="J24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="L24">
         <v>15</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>24</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>0.01382488479262673</v>
-      </c>
-      <c r="L24">
-        <v>24</v>
-      </c>
       <c r="M24">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1697,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1712</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1705,24 +1729,224 @@
         <v>30</v>
       </c>
       <c r="B25">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25">
+        <v>0.02409638554216868</v>
+      </c>
+      <c r="L25">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>16</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26">
+        <v>0.01920614596670935</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>19</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>0.01670506912442396</v>
+      </c>
+      <c r="L27">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.141025641025641</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>67</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28">
+        <v>0.01461038961038961</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+      <c r="M28">
+        <v>9</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
         <v>0.0436241610738255</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>13</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>14</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <v>0.9299999999999999</v>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>285</v>
       </c>
     </row>
